--- a/db/accounts.xlsx
+++ b/db/accounts.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithi\OneDrive\Documents\AI\financeAssistant\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{836CEBE8-98F3-48A9-9EC7-76D5F3681ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACBB6A6-735C-4247-8078-4246E5F3A591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A2BBE60-CD2C-42D4-BD7E-D347D8E16BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>bank</t>
   </si>
@@ -53,93 +42,66 @@
     <t xml:space="preserve"> due_date_day</t>
   </si>
   <si>
+    <t>Amex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> credit</t>
+  </si>
+  <si>
+    <t>Bofa</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
     <t>Citi</t>
   </si>
   <si>
-    <t xml:space="preserve"> credit</t>
-  </si>
-  <si>
-    <t>Chase</t>
-  </si>
-  <si>
-    <t>Affirm</t>
-  </si>
-  <si>
-    <t>BofaGrey</t>
-  </si>
-  <si>
-    <t>ChaseM</t>
-  </si>
-  <si>
-    <t>Amex</t>
+    <t>PNC</t>
   </si>
   <si>
     <t>Discover</t>
   </si>
   <si>
-    <t>BofaRed</t>
+    <t xml:space="preserve"> checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NULL</t>
+  </si>
+  <si>
+    <t>CapitalOne</t>
   </si>
   <si>
     <t>DCU</t>
   </si>
   <si>
-    <t>CapitalOne</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> checking</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NULL</t>
-  </si>
-  <si>
-    <t>Bofa</t>
-  </si>
-  <si>
-    <t>HSA</t>
+    <t>Coinbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crypto</t>
+  </si>
+  <si>
+    <t>401K</t>
   </si>
   <si>
     <t xml:space="preserve"> stocks</t>
   </si>
   <si>
-    <t>Schwab</t>
-  </si>
-  <si>
-    <t>Coinbase</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> crypto</t>
-  </si>
-  <si>
-    <t>RobinhoodM</t>
-  </si>
-  <si>
-    <t>Crypto</t>
+    <t>CGI</t>
   </si>
   <si>
     <t>Robinhood</t>
-  </si>
-  <si>
-    <t>401K</t>
-  </si>
-  <si>
-    <t>CGI</t>
-  </si>
-  <si>
-    <t>Webull</t>
-  </si>
-  <si>
-    <t>401kM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -150,9 +112,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,12 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,39 +178,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -274,26 +243,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -326,23 +278,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,6 +339,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -412,13 +354,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -483,52 +418,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7033556E-8E39-4B9E-B200-D54B8A564B8E}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:I16"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -548,10 +456,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2">
@@ -565,10 +473,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
@@ -582,10 +490,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4">
@@ -599,10 +507,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -616,10 +524,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -633,10 +541,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7">
@@ -650,321 +558,165 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>25.24</v>
-      </c>
-      <c r="D8">
-        <v>20800</v>
-      </c>
-      <c r="E8">
-        <v>24</v>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>25.24</v>
-      </c>
-      <c r="D9">
-        <v>34000</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>13.75</v>
-      </c>
-      <c r="D10">
-        <v>15000</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial"&amp;8&amp;K000000  &amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f5b21038-f9e1-4e7d-8ce4-653ce59968ea}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="1" removed="0"/>
+  <clbl:label id="{d9290083-bd2f-48a2-8ac5-09a524b17d15}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="1" removed="0"/>
 </clbl:labelList>
 </file>